--- a/deliveryreview/Delivery_Review_Mom_Details.xlsx
+++ b/deliveryreview/Delivery_Review_Mom_Details.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
   <si>
     <t>Minutes Of Meetings</t>
   </si>
@@ -70,25 +70,25 @@
     <t>Remarks</t>
   </si>
   <si>
+    <t>Download report task 1</t>
+  </si>
+  <si>
+    <t>Ashish Modi, Digendra Singh, Medasani Vamsee Krishna</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
     <t>Download report task 2</t>
   </si>
   <si>
-    <t>All</t>
+    <t>Abhiraj Salvi, Ashish Modi, Medasani Vamsee Krishna, Digendra Singh, Rajinder Gandotra, Rishi Ranjan</t>
   </si>
   <si>
     <t>Done</t>
   </si>
   <si>
     <t>asdfg</t>
-  </si>
-  <si>
-    <t>Download report task 1</t>
-  </si>
-  <si>
-    <t>Ashish Modi, Digendra Singh, Medasani Vamsee Krishna</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>Download report task 3</t>
@@ -141,6 +141,9 @@
   <si>
     <t>The Menu component doesn't accept a Fragment as a child.
 Consider providing an array instead.</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
   <si>
     <t>You can set the column width using setColumnWidth method of XSSFWorkbook. The 1st parameter is the column number</t>
@@ -744,14 +747,14 @@
       <c r="J23" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="K23" t="s" s="5">
+      <c r="K23" t="s" s="7">
         <v>20</v>
       </c>
       <c r="L23" t="s" s="10">
         <v>2</v>
       </c>
       <c r="M23" t="s" s="4">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O23" s="3"/>
     </row>
@@ -761,19 +764,19 @@
         <v>2.0</v>
       </c>
       <c r="D24" t="s" s="4">
+        <v>21</v>
+      </c>
+      <c r="J24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="J24" t="s" s="4">
+      <c r="K24" t="s" s="5">
         <v>23</v>
-      </c>
-      <c r="K24" t="s" s="7">
-        <v>24</v>
       </c>
       <c r="L24" t="s" s="10">
         <v>2</v>
       </c>
       <c r="M24" t="s" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O24" s="3"/>
     </row>
@@ -795,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="M25" t="s" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O25" s="3"/>
     </row>
@@ -994,7 +997,7 @@
         <v>35</v>
       </c>
       <c r="K21" t="s" s="15">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L21" t="s" s="20">
         <v>32</v>
@@ -1181,16 +1184,16 @@
         <v>41</v>
       </c>
       <c r="J24" t="s" s="24">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K24" t="s" s="25">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L24" t="s" s="30">
         <v>36</v>
       </c>
       <c r="M24" t="s" s="24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O24" s="23"/>
     </row>
@@ -1200,10 +1203,10 @@
         <v>2.0</v>
       </c>
       <c r="D25" t="s" s="24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J25" t="s" s="24">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25" t="s" s="26">
         <v>27</v>
@@ -1212,7 +1215,7 @@
         <v>36</v>
       </c>
       <c r="M25" t="s" s="24">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O25" s="23"/>
     </row>
@@ -1222,19 +1225,19 @@
         <v>3.0</v>
       </c>
       <c r="D26" t="s" s="24">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="24">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26" t="s" s="27">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L26" t="s" s="30">
         <v>36</v>
       </c>
       <c r="M26" t="s" s="24">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O26" s="23"/>
     </row>
@@ -1244,19 +1247,19 @@
         <v>4.0</v>
       </c>
       <c r="D27" t="s" s="24">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J27" t="s" s="24">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s" s="26">
         <v>27</v>
       </c>
       <c r="L27" t="s" s="30">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M27" t="s" s="24">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O27" s="23"/>
     </row>
